--- a/TorneoApertura2016/Racha.xlsx
+++ b/TorneoApertura2016/Racha.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11060" yWindow="1980" windowWidth="25040" windowHeight="16900" tabRatio="500"/>
+    <workbookView xWindow="2080" yWindow="720" windowWidth="25040" windowHeight="16900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="25">
   <si>
     <t>Pachuca</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>W3</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A9" activeCellId="1" sqref="A15:XFD15 A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -487,7 +490,7 @@
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="E1" t="s">
         <v>21</v>
       </c>
@@ -497,351 +500,405 @@
       <c r="G1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>-3.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>-4.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>-3.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>-5.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -849,7 +906,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -857,12 +914,19 @@
       <c r="F19" t="s">
         <v>19</v>
       </c>
+      <c r="H19">
+        <v>-7</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H19">
+    <sortCondition ref="A2"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/TorneoApertura2016/Racha.xlsx
+++ b/TorneoApertura2016/Racha.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="720" windowWidth="25040" windowHeight="16900" tabRatio="500"/>
+    <workbookView xWindow="1280" yWindow="0" windowWidth="24480" windowHeight="14940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="26">
   <si>
     <t>Pachuca</t>
   </si>
@@ -94,13 +94,16 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>W4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,6 +124,20 @@
       <color rgb="FF0066CC"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,16 +156,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -479,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A9" activeCellId="1" sqref="A15:XFD15 A9:XFD9"/>
+      <selection activeCell="A12" activeCellId="1" sqref="A15:XFD15 A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -490,7 +515,7 @@
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="E1" t="s">
         <v>21</v>
       </c>
@@ -501,10 +526,13 @@
         <v>23</v>
       </c>
       <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -523,11 +551,17 @@
       <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="H2">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -546,11 +580,17 @@
       <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="H3">
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3">
         <v>-3.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -569,11 +609,17 @@
       <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="H4">
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4">
         <v>-4.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -592,11 +638,17 @@
       <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="H5">
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -615,11 +667,17 @@
       <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="H6">
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6">
         <v>-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -638,11 +696,17 @@
       <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="H7">
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7">
         <v>-3.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="J7">
+        <v>-5.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -661,11 +725,17 @@
       <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="H8">
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8">
         <v>-5.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="J8">
+        <v>-3.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -684,11 +754,17 @@
       <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="H9">
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9">
         <v>-2.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="J9">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -707,11 +783,17 @@
       <c r="F10" t="s">
         <v>20</v>
       </c>
-      <c r="H10">
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="J10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,11 +812,17 @@
       <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="H11">
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="J11">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -753,11 +841,17 @@
       <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="H12">
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="J12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -776,11 +870,17 @@
       <c r="F13" t="s">
         <v>20</v>
       </c>
-      <c r="H13">
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="J13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -799,11 +899,17 @@
       <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="H14">
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="J14">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -822,11 +928,17 @@
       <c r="F15" t="s">
         <v>18</v>
       </c>
-      <c r="H15">
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15">
         <v>-2.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="J15">
+        <v>-4.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -845,11 +957,17 @@
       <c r="F16" t="s">
         <v>18</v>
       </c>
-      <c r="H16">
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -868,11 +986,17 @@
       <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="H17">
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="J17">
+        <v>-4.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -891,11 +1015,17 @@
       <c r="F18" t="s">
         <v>20</v>
       </c>
-      <c r="H18">
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="J18">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -914,7 +1044,13 @@
       <c r="F19" t="s">
         <v>19</v>
       </c>
-      <c r="H19">
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19">
+        <v>-7</v>
+      </c>
+      <c r="J19">
         <v>-7</v>
       </c>
     </row>
@@ -922,6 +1058,7 @@
   <sortState ref="A2:H19">
     <sortCondition ref="A2"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A11" r:id="rId1"/>
   </hyperlinks>

--- a/TorneoApertura2016/Racha.xlsx
+++ b/TorneoApertura2016/Racha.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="0" windowWidth="24480" windowHeight="14940" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="28560" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="53">
   <si>
     <t>Pachuca</t>
   </si>
@@ -97,13 +97,94 @@
   </si>
   <si>
     <t>W4</t>
+  </si>
+  <si>
+    <t>W3 Correct</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>w5</t>
+  </si>
+  <si>
+    <t>W4 Correct</t>
+  </si>
+  <si>
+    <t>P(a|b) = P(a, b) / P(b)</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>Tijuana 2 - 0 León</t>
+  </si>
+  <si>
+    <t>Querétaro 0 - 0 Cruz Azul</t>
+  </si>
+  <si>
+    <t>Monterrey 2 - 1 Necaxa</t>
+  </si>
+  <si>
+    <t>Atlas 3 - 2 Puebla</t>
+  </si>
+  <si>
+    <t>Pachuca 3 - 0 Pumas UNAM</t>
+  </si>
+  <si>
+    <t>America 1 - 1 Morelia</t>
+  </si>
+  <si>
+    <t>Toluca 0 - 0 U.A.N.L</t>
+  </si>
+  <si>
+    <t>Chiapas 1 - 1 Veracruz</t>
+  </si>
+  <si>
+    <t>Santos 0 - 1 Guadalajara</t>
+  </si>
+  <si>
+    <t>W5</t>
+  </si>
+  <si>
+    <t>w6</t>
+  </si>
+  <si>
+    <t>Veracruz,v,Toluca,E</t>
+  </si>
+  <si>
+    <t>Cruz Azul,v,Santos,G</t>
+  </si>
+  <si>
+    <t>Morelia,v,Chiapas,G</t>
+  </si>
+  <si>
+    <t>U.A.N.L,v,Pachuca,E</t>
+  </si>
+  <si>
+    <t>Necaxa,v,Tijuana,P</t>
+  </si>
+  <si>
+    <t>Guadalajara,v,Atlas,P</t>
+  </si>
+  <si>
+    <t>Pumas UNAM,v,Monterrey,E</t>
+  </si>
+  <si>
+    <t>Puebla,v,America,E</t>
+  </si>
+  <si>
+    <t>León,v,Querétaro,P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W5 Correct </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,6 +219,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -156,24 +244,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="26">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -504,18 +634,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A12" activeCellId="1" sqref="A15:XFD15 A12:XFD12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="15" max="15" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="E1" t="s">
         <v>21</v>
       </c>
@@ -529,10 +660,19 @@
         <v>25</v>
       </c>
       <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -554,14 +694,29 @@
       <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="I2">
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2">
         <v>2</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N2">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -583,14 +738,29 @@
       <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="I3">
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3">
         <v>-3.4</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-2.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="L3">
+        <v>-2.4</v>
+      </c>
+      <c r="M3" s="3">
+        <v>-2.6</v>
+      </c>
+      <c r="N3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -612,14 +782,29 @@
       <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="I4">
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
         <v>-4.8</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="L4">
+        <v>-3.8</v>
+      </c>
+      <c r="M4" s="3">
+        <v>-1.8</v>
+      </c>
+      <c r="N4">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -641,14 +826,29 @@
       <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="I5">
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5">
         <v>0.4</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="L5">
+        <v>0.6</v>
+      </c>
+      <c r="M5" s="3">
+        <v>-0.4</v>
+      </c>
+      <c r="N5">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -670,14 +870,29 @@
       <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="I6">
-        <v>-4</v>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
       </c>
       <c r="J6">
         <v>-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>-4</v>
+      </c>
+      <c r="L6">
+        <v>-6</v>
+      </c>
+      <c r="M6" s="3">
+        <v>-4.8</v>
+      </c>
+      <c r="N6">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -699,14 +914,29 @@
       <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="I7">
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7">
         <v>-3.4</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-5.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="L7">
+        <v>-5.4</v>
+      </c>
+      <c r="M7" s="3">
+        <v>-5.6</v>
+      </c>
+      <c r="N7">
+        <v>-5.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -728,14 +958,29 @@
       <c r="G8" t="s">
         <v>20</v>
       </c>
-      <c r="I8">
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8">
         <v>-5.6</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-3.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="L8">
+        <v>-5.4</v>
+      </c>
+      <c r="M8" s="3">
+        <v>-2.6</v>
+      </c>
+      <c r="N8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -757,14 +1002,29 @@
       <c r="G9" t="s">
         <v>19</v>
       </c>
-      <c r="I9">
-        <v>-2.6</v>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
       </c>
       <c r="J9">
         <v>-2.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>-2.6</v>
+      </c>
+      <c r="L9">
+        <v>-1.6</v>
+      </c>
+      <c r="M9" s="3">
+        <v>-1.8</v>
+      </c>
+      <c r="N9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -786,14 +1046,29 @@
       <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="I10">
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10">
         <v>3.4</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="L10">
+        <v>1.4</v>
+      </c>
+      <c r="M10" s="3">
+        <v>-0.4</v>
+      </c>
+      <c r="N10">
+        <v>-3.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,14 +1090,29 @@
       <c r="G11" t="s">
         <v>19</v>
       </c>
-      <c r="I11">
-        <v>4.2</v>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
       </c>
       <c r="J11">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>4.2</v>
+      </c>
+      <c r="L11">
+        <v>5.2</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -844,14 +1134,29 @@
       <c r="G12" t="s">
         <v>18</v>
       </c>
-      <c r="I12">
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12">
         <v>3.4</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="L12">
+        <v>1.4</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="N12">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -873,14 +1178,29 @@
       <c r="G13" t="s">
         <v>19</v>
       </c>
-      <c r="I13">
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13">
         <v>-1.8</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="L13">
+        <v>-0.8</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="N13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -902,14 +1222,29 @@
       <c r="G14" t="s">
         <v>19</v>
       </c>
-      <c r="I14">
-        <v>-1.8</v>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
       </c>
       <c r="J14">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>-1.8</v>
+      </c>
+      <c r="L14">
+        <v>-0.8</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="N14">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -931,14 +1266,29 @@
       <c r="G15" t="s">
         <v>18</v>
       </c>
-      <c r="I15">
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15">
         <v>-2.6</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-4.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="L15">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="M15" s="3">
+        <v>-2.6</v>
+      </c>
+      <c r="N15">
+        <v>-5.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -960,14 +1310,29 @@
       <c r="G16" t="s">
         <v>19</v>
       </c>
-      <c r="I16">
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16">
         <v>-1.8</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="L16">
+        <v>-0.8</v>
+      </c>
+      <c r="M16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -989,14 +1354,29 @@
       <c r="G17" t="s">
         <v>18</v>
       </c>
-      <c r="I17">
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17">
         <v>-1.8</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-4.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="L17">
+        <v>-3.8</v>
+      </c>
+      <c r="M17" s="3">
+        <v>-4.8</v>
+      </c>
+      <c r="N17">
+        <v>-4.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1018,14 +1398,29 @@
       <c r="G18" t="s">
         <v>19</v>
       </c>
-      <c r="I18">
-        <v>0.4</v>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
       </c>
       <c r="J18">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0.4</v>
+      </c>
+      <c r="L18">
+        <v>1.4</v>
+      </c>
+      <c r="M18" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="N18">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1047,11 +1442,599 @@
       <c r="G19" t="s">
         <v>18</v>
       </c>
-      <c r="I19">
-        <v>-7</v>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
       </c>
       <c r="J19">
         <v>-7</v>
+      </c>
+      <c r="K19">
+        <v>-7</v>
+      </c>
+      <c r="L19">
+        <v>-9</v>
+      </c>
+      <c r="M19" s="3">
+        <v>-7</v>
+      </c>
+      <c r="N19">
+        <v>-4.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>34</v>
+      </c>
+      <c r="O28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>35</v>
+      </c>
+      <c r="O29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>36</v>
+      </c>
+      <c r="O30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>38</v>
+      </c>
+      <c r="O32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>39</v>
+      </c>
+      <c r="O33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>40</v>
+      </c>
+      <c r="O34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <f>4/7</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="I50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="I51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="I52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="I55" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="I56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56" s="4">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="I57" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
+      <c r="K57">
+        <f>3/7</f>
+        <v>0.42857142857142855</v>
       </c>
     </row>
   </sheetData>
